--- a/data_table/BattleReward.xlsx
+++ b/data_table/BattleReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20265" windowHeight="10710"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
   </si>
   <si>
     <t>转表符</t>
@@ -1170,7 +1173,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1237,10 +1240,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -1251,34 +1254,34 @@
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:10">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1289,10 +1292,10 @@
         <v>10000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>15003751</v>
@@ -1301,10 +1304,10 @@
         <v>100</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1333,10 +1336,10 @@
         <v>20000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2">
         <v>15003752</v>
@@ -1345,10 +1348,10 @@
         <v>200</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1374,10 +1377,10 @@
         <v>30000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2">
         <v>15003753</v>
@@ -1386,10 +1389,10 @@
         <v>300</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11">
         <v>1</v>
